--- a/HW5/市長辯論.xlsx
+++ b/HW5/市長辯論.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403D6742-36C3-41A1-AC8B-DA1AED7101BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8811FF5-FFEE-4F54-8B36-884B675C9B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>陳時中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1384,19 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB055BD3-B839-40DD-84EF-F8B97E5CD5D9}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="79.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -1409,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6">
       <c r="A2" s="2">
         <v>0.5229166666666667</v>
       </c>
@@ -1423,353 +1414,347 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6">
       <c r="A3" s="2">
         <v>0.52847222222222223</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="82.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.6">
       <c r="A4" s="2">
         <v>0.53333333333333333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="110.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6">
       <c r="A5" s="2">
         <v>0.54305555555555551</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="110.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6">
       <c r="A6" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="110.4">
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="2">
         <v>0.56180555555555556</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6">
       <c r="A8" s="2">
         <v>0.58958333333333335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="2">
         <v>0.59444444444444444</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="69">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.6">
       <c r="A10" s="2">
         <v>0.59791666666666665</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="128.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6">
       <c r="A11" s="2">
         <v>0.60277777777777775</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="158.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.6">
       <c r="A12" s="2">
         <v>0.60763888888888895</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="199.2" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6">
       <c r="A13" s="2">
         <v>0.60833333333333328</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="170.4" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6">
       <c r="A14" s="2">
         <v>0.62569444444444444</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="218.4" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.6">
       <c r="A15" s="2">
         <v>0.63541666666666663</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="207">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.6">
       <c r="A16" s="2">
         <v>0.63958333333333328</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="179.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.6">
       <c r="A17" s="2">
         <v>0.6430555555555556</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="207">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="409.6">
       <c r="A18" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="331.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.6">
       <c r="A19" s="2">
         <v>0.64930555555555558</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="303.60000000000002">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="409.6">
       <c r="A20" s="2">
         <v>0.65625</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="193.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="409.6">
       <c r="A21" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="138">
+    </row>
+    <row r="22" spans="1:4" ht="409.6">
       <c r="A22" s="2">
         <v>0.67013888888888884</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="151.80000000000001">
+    </row>
+    <row r="23" spans="1:4" ht="409.6">
       <c r="A23" s="2">
         <v>0.67361111111111116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="82.8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.6">
       <c r="A24" s="2">
         <v>0.68055555555555547</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="82.8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.6">
       <c r="A25" s="2">
         <v>0.68194444444444446</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="82.8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="400.2">
       <c r="A26" s="2">
         <v>0.68472222222222223</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1">
-      <c r="A1048576" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>